--- a/WorkingData/SteadyCalibrationCurve.xlsx
+++ b/WorkingData/SteadyCalibrationCurve.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Steady reading: 45255.6</t>
   </si>
@@ -42,6 +42,48 @@
   </si>
   <si>
     <t>Steady Measurement</t>
+  </si>
+  <si>
+    <t>Difference between zero-tare and linear model intercept: 69.34</t>
+  </si>
+  <si>
+    <t>Offset:  -63646.3</t>
+  </si>
+  <si>
+    <t>Steady reading: 9072.33</t>
+  </si>
+  <si>
+    <t>Steady reading: 22644.3</t>
+  </si>
+  <si>
+    <t>Tared to:  24.332</t>
+  </si>
+  <si>
+    <t>Steady reading: 45233.0</t>
+  </si>
+  <si>
+    <t>Grams: 99.9845</t>
+  </si>
+  <si>
+    <t>Sample calibration debugging output:</t>
+  </si>
+  <si>
+    <t>&lt;-- initial naïve zero-tare</t>
+  </si>
+  <si>
+    <t>&lt;-- 20g calibration</t>
+  </si>
+  <si>
+    <t>&lt;-- 50g calibration</t>
+  </si>
+  <si>
+    <t>&lt;-- tare adjustment</t>
+  </si>
+  <si>
+    <t>&lt;-- tared sensor-unit reading for 100g</t>
+  </si>
+  <si>
+    <t>&lt;-- converted weight</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,6 +1440,64 @@
         <v>3.3145508783559825E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/WorkingData/SteadyCalibrationCurve.xlsx
+++ b/WorkingData/SteadyCalibrationCurve.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Steady reading: 45255.6</t>
   </si>
@@ -84,6 +85,15 @@
   </si>
   <si>
     <t>&lt;-- converted weight</t>
+  </si>
+  <si>
+    <t>Steady reading: 6806.98</t>
+  </si>
+  <si>
+    <t>Grams: 15.0464</t>
+  </si>
+  <si>
+    <t>&lt;-- tared sensor-unit reading for 15g</t>
   </si>
 </sst>
 </file>
@@ -154,6 +164,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calibration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -243,6 +278,32 @@
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -272,6 +333,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -349,6 +424,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight (grams)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -411,6 +542,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Cell Measurement (arb.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -497,7 +684,1088 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sample of Automatic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cleaned Sensor Reading</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>579.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>580.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>538.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>611.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>551.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>563.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>676.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>621.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>596.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>627.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>627.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>602.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>643.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>642.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>573.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>548.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>563.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>581.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>576.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3063.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22804.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43545.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45726.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45599.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45712.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45648.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45661.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45644.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47586.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49550.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46800.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47595.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45127.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17227.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1009.33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>420.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>467.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>439.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>425.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>459.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>419.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>400.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>482.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>442.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>429.32799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="221870048"/>
+        <c:axId val="221871224"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Measurement State</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="900380728"/>
+        <c:axId val="900378768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221870048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221871224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221871224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cleaned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Sensor Reading (arb.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221870048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="900378768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measurement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> State</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900380728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="900380728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="900378768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1053,24 +2321,575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1351,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="G5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,6 +3317,577 @@
         <v>19</v>
       </c>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>579.32799999999997</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>580.32799999999997</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>538.32799999999997</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>240</v>
+      </c>
+      <c r="B4">
+        <v>640.32799999999997</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>320</v>
+      </c>
+      <c r="B5">
+        <v>611.32799999999997</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>551.32799999999997</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>480</v>
+      </c>
+      <c r="B7">
+        <v>563.32799999999997</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>560</v>
+      </c>
+      <c r="B8">
+        <v>676.32799999999997</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>640</v>
+      </c>
+      <c r="B9">
+        <v>621.32799999999997</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>720</v>
+      </c>
+      <c r="B10">
+        <v>576.32799999999997</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>800</v>
+      </c>
+      <c r="B11">
+        <v>633.32799999999997</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>880</v>
+      </c>
+      <c r="B12">
+        <v>596.32799999999997</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>960</v>
+      </c>
+      <c r="B13">
+        <v>627.32799999999997</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1040</v>
+      </c>
+      <c r="B14">
+        <v>627.32799999999997</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1120</v>
+      </c>
+      <c r="B15">
+        <v>602.32799999999997</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1200</v>
+      </c>
+      <c r="B16">
+        <v>643.32799999999997</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1280</v>
+      </c>
+      <c r="B17">
+        <v>642.32799999999997</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1360</v>
+      </c>
+      <c r="B18">
+        <v>573.32799999999997</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1440</v>
+      </c>
+      <c r="B19">
+        <v>521.32799999999997</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1520</v>
+      </c>
+      <c r="B20">
+        <v>548.32799999999997</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1600</v>
+      </c>
+      <c r="B21">
+        <v>563.32799999999997</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1680</v>
+      </c>
+      <c r="B22">
+        <v>581.32799999999997</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1760</v>
+      </c>
+      <c r="B23">
+        <v>576.32799999999997</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1840</v>
+      </c>
+      <c r="B24">
+        <v>3063.33</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1920</v>
+      </c>
+      <c r="B25">
+        <v>22804.3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>43545.3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2080</v>
+      </c>
+      <c r="B27">
+        <v>45726.3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2160</v>
+      </c>
+      <c r="B28">
+        <v>45599.3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2240</v>
+      </c>
+      <c r="B29">
+        <v>45712.3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2320</v>
+      </c>
+      <c r="B30">
+        <v>45648.3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2400</v>
+      </c>
+      <c r="B31">
+        <v>45661.3</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2480</v>
+      </c>
+      <c r="B32">
+        <v>45644.3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2560</v>
+      </c>
+      <c r="B33">
+        <v>47586.3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2640</v>
+      </c>
+      <c r="B34">
+        <v>49550.3</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2720</v>
+      </c>
+      <c r="B35">
+        <v>46800.3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2800</v>
+      </c>
+      <c r="B36">
+        <v>47595.3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2880</v>
+      </c>
+      <c r="B37">
+        <v>45127.3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2960</v>
+      </c>
+      <c r="B38">
+        <v>17227.3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3040</v>
+      </c>
+      <c r="B39">
+        <v>1009.33</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3120</v>
+      </c>
+      <c r="B40">
+        <v>420.32799999999997</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3200</v>
+      </c>
+      <c r="B41">
+        <v>467.32799999999997</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3280</v>
+      </c>
+      <c r="B42">
+        <v>439.32799999999997</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3360</v>
+      </c>
+      <c r="B43">
+        <v>425.32799999999997</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3440</v>
+      </c>
+      <c r="B44">
+        <v>459.32799999999997</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3520</v>
+      </c>
+      <c r="B45">
+        <v>419.32799999999997</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3600</v>
+      </c>
+      <c r="B46">
+        <v>400.32799999999997</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3680</v>
+      </c>
+      <c r="B47">
+        <v>482.32799999999997</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3760</v>
+      </c>
+      <c r="B48">
+        <v>442.32799999999997</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3840</v>
+      </c>
+      <c r="B49">
+        <v>429.32799999999997</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/WorkingData/SteadyCalibrationCurve.xlsx
+++ b/WorkingData/SteadyCalibrationCurve.xlsx
@@ -793,148 +793,148 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>480</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>560</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>640</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>880</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>960</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1040</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1120</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1280</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1360</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1440</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1520</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1600</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1680</c:v>
+                  <c:v>1575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1760</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1840</c:v>
+                  <c:v>1725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1920</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2080</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2160</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2240</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2320</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>2480</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2560</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>2640</c:v>
+                  <c:v>2475</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2720</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2800</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2880</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2960</c:v>
+                  <c:v>2775</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3040</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3120</c:v>
+                  <c:v>2925</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3200</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3280</c:v>
+                  <c:v>3075</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3360</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3440</c:v>
+                  <c:v>3225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3520</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3680</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3760</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>580.32799999999997</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>538.32799999999997</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>640.32799999999997</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>611.32799999999997</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B6">
         <v>551.32799999999997</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B7">
         <v>563.32799999999997</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B8">
         <v>676.32799999999997</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="B9">
         <v>621.32799999999997</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>720</v>
+        <v>675</v>
       </c>
       <c r="B10">
         <v>576.32799999999997</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="B11">
         <v>633.32799999999997</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="B12">
         <v>596.32799999999997</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="B13">
         <v>627.32799999999997</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1040</v>
+        <v>975</v>
       </c>
       <c r="B14">
         <v>627.32799999999997</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1120</v>
+        <v>1050</v>
       </c>
       <c r="B15">
         <v>602.32799999999997</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1200</v>
+        <v>1125</v>
       </c>
       <c r="B16">
         <v>643.32799999999997</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="B17">
         <v>642.32799999999997</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1360</v>
+        <v>1275</v>
       </c>
       <c r="B18">
         <v>573.32799999999997</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1440</v>
+        <v>1350</v>
       </c>
       <c r="B19">
         <v>521.32799999999997</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1520</v>
+        <v>1425</v>
       </c>
       <c r="B20">
         <v>548.32799999999997</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="B21">
         <v>563.32799999999997</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1680</v>
+        <v>1575</v>
       </c>
       <c r="B22">
         <v>581.32799999999997</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1760</v>
+        <v>1650</v>
       </c>
       <c r="B23">
         <v>576.32799999999997</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1840</v>
+        <v>1725</v>
       </c>
       <c r="B24">
         <v>3063.33</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1920</v>
+        <v>1800</v>
       </c>
       <c r="B25">
         <v>22804.3</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2000</v>
+        <v>1875</v>
       </c>
       <c r="B26">
         <v>43545.3</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2080</v>
+        <v>1950</v>
       </c>
       <c r="B27">
         <v>45726.3</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2160</v>
+        <v>2025</v>
       </c>
       <c r="B28">
         <v>45599.3</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2240</v>
+        <v>2100</v>
       </c>
       <c r="B29">
         <v>45712.3</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2320</v>
+        <v>2175</v>
       </c>
       <c r="B30">
         <v>45648.3</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2400</v>
+        <v>2250</v>
       </c>
       <c r="B31">
         <v>45661.3</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2480</v>
+        <v>2325</v>
       </c>
       <c r="B32">
         <v>45644.3</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2560</v>
+        <v>2400</v>
       </c>
       <c r="B33">
         <v>47586.3</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2640</v>
+        <v>2475</v>
       </c>
       <c r="B34">
         <v>49550.3</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2720</v>
+        <v>2550</v>
       </c>
       <c r="B35">
         <v>46800.3</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2800</v>
+        <v>2625</v>
       </c>
       <c r="B36">
         <v>47595.3</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2880</v>
+        <v>2700</v>
       </c>
       <c r="B37">
         <v>45127.3</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2960</v>
+        <v>2775</v>
       </c>
       <c r="B38">
         <v>17227.3</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3040</v>
+        <v>2850</v>
       </c>
       <c r="B39">
         <v>1009.33</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3120</v>
+        <v>2925</v>
       </c>
       <c r="B40">
         <v>420.32799999999997</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="B41">
         <v>467.32799999999997</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3280</v>
+        <v>3075</v>
       </c>
       <c r="B42">
         <v>439.32799999999997</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3360</v>
+        <v>3150</v>
       </c>
       <c r="B43">
         <v>425.32799999999997</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3440</v>
+        <v>3225</v>
       </c>
       <c r="B44">
         <v>459.32799999999997</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3520</v>
+        <v>3300</v>
       </c>
       <c r="B45">
         <v>419.32799999999997</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3600</v>
+        <v>3375</v>
       </c>
       <c r="B46">
         <v>400.32799999999997</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3680</v>
+        <v>3450</v>
       </c>
       <c r="B47">
         <v>482.32799999999997</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3760</v>
+        <v>3525</v>
       </c>
       <c r="B48">
         <v>442.32799999999997</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3840</v>
+        <v>3600</v>
       </c>
       <c r="B49">
         <v>429.32799999999997</v>

--- a/WorkingData/SteadyCalibrationCurve.xlsx
+++ b/WorkingData/SteadyCalibrationCurve.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18768" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Steady reading: 45255.6</t>
   </si>
@@ -95,11 +96,26 @@
   <si>
     <t>&lt;-- tared sensor-unit reading for 15g</t>
   </si>
+  <si>
+    <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>Measurement (g)</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Measurement (kg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,14 +145,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2907,6 +2935,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E18:F32" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="E18:F32">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Weight (kg)" dataDxfId="2"/>
+    <tableColumn id="2" name="Measurement (kg)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3343,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="F30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,4 +3934,390 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <f>A2/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2/1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="0">A3/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F15" si="1">B3/1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>